--- a/topics/FA2024_Assignment Subjects_SWR302_SWP391_SWT391.xlsx
+++ b/topics/FA2024_Assignment Subjects_SWR302_SWP391_SWT391.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28103"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42E0FDF2-81FA-4CF1-9A81-BE9C71E3CCC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7648DA42-B326-4CE8-B028-8FE24D3BBF0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="SPRING23" sheetId="4" state="hidden" r:id="rId2"/>
     <sheet name="SUMMER2022" sheetId="1" state="hidden" r:id="rId3"/>
     <sheet name="SPRING2022" sheetId="2" state="hidden" r:id="rId4"/>
-    <sheet name="FALL2023_SWP391" sheetId="6" r:id="rId5"/>
+    <sheet name="FALL2024_SWP391" sheetId="6" r:id="rId5"/>
     <sheet name="FALL2022" sheetId="3" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="337">
   <si>
     <t>No</t>
   </si>
@@ -1268,6 +1268,9 @@
     <t>Topic Name</t>
   </si>
   <si>
+    <t>Author</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1445,6 +1448,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
       <t xml:space="preserve">Hệ thống quản lý dịch vụ vận chuyển cá Koi của công ty
 - Trang chủ giới thiệu công ty vận chuyển, dịch vụ vận chuyển, bảng giá, chính sách, blog chia sẽ, tin tức, câu hỏi thường gặp, ...
 - Chức năng cho phép khách hàng đặt đơn vận chuyển theo: khối lượng và số lượng cá Koi, phương thức vận chuyển, địa điểm xuất phát và địa điểm đến, các dịch vụ gia tăng khác, ...
@@ -1481,7 +1489,7 @@
         <color rgb="FFED7D31"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>Link tham khảo: https://ezbuy.jp/vi/resource/blog/dich-vu-van-chuyen-ca-Koi-nhat</t>
+      <t>Link tham khảo: https://ezbuy.jp/vi/resource/blog/dich-vu-van-chuyen-ca-koi-nhat</t>
     </r>
   </si>
   <si>
@@ -1614,6 +1622,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
       <t xml:space="preserve">Phần mềm tư vấn lựa chọn cá Koi phong thủy phù hợp với bản mệnh (VD: kim, mộc, thủy, hỏa, thổ)
 - Trang chủ giới thiệu thông tin, tin tức, blog chia sẽ kinh nghiệm, …
 - Chức năng tư vấn cho người dùng lựa chọn cá Koi cần nuôi (giống cá, số lượng, ...) phù hợp với bản mệnh.
@@ -2057,6 +2070,323 @@
   </si>
   <si>
     <t>POD Booking System là hệ thống quản lý và đặt chỗ làm việc cá nhân, giúp người dùng dễ dàng tìm kiếm và đặt chỗ theo nhu cầu. Với giao diện thân thiện và khả năng thanh toán trực tuyến, người dùng có thể mua các gói dịch vụ và tùy chỉnh tiện ích đi kèm. Hệ thống cung cấp các báo cáo chi tiết về sử dụng và doanh thu, hỗ trợ quản lý hiệu quả không gian làm việc. Đặc biệt, người dùng còn có thể nhận thông báo và nhắc nhở về lịch đặt chỗ, đồng thời hệ thống ưu tiên phục vụ cho khách hàng VIP. Đây là giải pháp tối ưu cho việc quản lý không gian làm việc cá nhân trong các văn phòng hiện đại.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Admin, Manager, Staff at Location, Customer</t>
+  </si>
+  <si>
+    <t>Đặt chỗ POD: Xem lịch trống và đặt chỗ làm việc theo giờ, ngày, tuần.
+Quản lý lịch làm việc: Đồng bộ lịch với các ứng dụng như Google Calendar.
+Thanh toán trực tuyến: Hỗ trợ thanh toán qua thẻ tín dụng, PayPal, ví điện tử.
+Quản lý gói dịch vụ: Mua và theo dõi sử dụng các gói dịch vụ (giờ, tuần, tháng).
+Tiện ích và dịch vụ đi kèm: Đặt thêm dịch vụ như đồ uống, in ấn, phòng họp.
+Quản lý người dùng: Theo dõi lịch sử đặt chỗ, hồ sơ cá nhân, điểm thưởng.
+Báo cáo và phân tích: Cung cấp báo cáo về sử dụng, doanh thu, và thời gian cao điểm.
+Thông báo và nhắc nhở: Gửi thông báo và nhắc nhở về lịch đặt chỗ.
+Quản lý ưu tiên: Quản lý danh sách chờ và ưu tiên đặt chỗ cho khách hàng VIP.
+Đánh giá và phản hồi: Thu thập và phản hồi ý kiến của người dùng.
+Tùy chỉnh giao diện: Giao diện thân thiện, có thể tùy chỉnh theo thương hiệu.
+https://workflow.com.vn/vi/trang-chu/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWP Mentor Booking System </t>
+  </si>
+  <si>
+    <t>Trong môn học SWP391, sinh viên làm việc theo nhóm để phát triển các dự án phần mềm, mỗi nhóm phụ trách một chủ đề khác nhau. Hệ thống booking lịch gặp mentor được xây dựng để hỗ trợ quá trình này, cho phép sinh viên đặt lịch gặp các mentor theo kỹ năng cần thiết như thiết lập yêu cầu hoặc môi trường phát triển, sử dụng điểm ví để trao đổi. Hệ thống giúp tối ưu hóa việc hỗ trợ từ mentor và nâng cao hiệu quả học tập của sinh viên.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin, Student,Mentor </t>
+  </si>
+  <si>
+    <t>Quản lý tài khoản
+Sinh viên: Đăng ký tài khoản, liên kết với nhóm dự án, quản lý điểm ví, lịch sử gặp mentor.
+Mentor: Tài khoản cá nhân hiển thị kỹ năng, chuyên môn và lịch làm việc.
+Admin/Manager: Quản lý toàn bộ hệ thống, tài khoản sinh viên và mentor.
+Tạo và quản lý nhóm dự án
+Sinh viên tạo nhóm, thiết lập chủ đề dự án, thêm thành viên, cập nhật tiến độ.
+Lên lịch gặp mentor
+Sinh viên đặt lịch gặp mentor dựa trên kỹ năng cần hỗ trợ. Mentor quản lý lịch gặp và giới hạn số buổi hỗ trợ.
+Quản lý ví điểm
+Nhóm sinh viên sử dụng điểm ví để đặt lịch với mentor. Hệ thống trừ điểm tự động sau mỗi lần đặt lịch.
+Tìm kiếm và lọc mentor
+Tìm kiếm mentor theo kỹ năng, thời gian rảnh. Lọc theo hạng mục hỗ trợ như thiết lập yêu cầu, môi trường phát triển.
+Đánh giá và phản hồi
+Sinh viên đánh giá và phản hồi sau buổi gặp. Mentor cũng có thể đánh giá nhóm sinh viên.
+Quản lý thông báo
+Gửi thông báo qua email/SMS về lịch gặp, cập nhật điểm ví, hoặc các thay đổi khác.
+Báo cáo và thống kê
+Admin/Manager theo dõi số lượng buổi gặp, sử dụng điểm ví, đánh giá hiệu quả hỗ trợ.</t>
+  </si>
+  <si>
+    <t>PhuongLHK</t>
+  </si>
+  <si>
+    <t>Hair Salon Booking App</t>
+  </si>
+  <si>
+    <t>Customer demand to search, book, and experience hair salon services easily and conveniently.</t>
+  </si>
+  <si>
+    <t>Difficulty in searching and booking at hair salons</t>
+  </si>
+  <si>
+    <t>Guest
+Cusromer
+Stylist
+Hair Salon Staff
+Hair Salon Manager
+System Administrator</t>
+  </si>
+  <si>
+    <t>HairHarmony offers a robust management solution tailored to streamline operations
+within the hair salon industry while enhancing customer satisfaction through intuitive
+functionalities.
+▪ Platform Access: Users can easily access the platform via web or mobile
+applications.
+▪ Appointment Booking and Management:
+o Customers: Can browse available services, select a hair stylist, and
+book appointments via the web or mobile app.
+o Salon Staff: Can view and manage appointment requests, approve or
+reject them, and track service status.
+▪ Feedback and Rewards: Provide feedback on their service experience and
+earn loyalty points for regular use of services. The system rewards customers
+based on their engagement and service quality.
+▪ Revenue and Earnings Tracking: Salon Owners track earnings from
+services provided and manage financial transactions.
+▪ Commission and Salary Management: Stylists receive a fixed monthly
+salary based on their level and a percentage commission of the revenue from
+their services. Payments are processed at the end of each month.
+▪ Support and Assistance: The system offers support for appointment-related
+issues, service inquiries, and technical difficulties. It includes mechanisms for
+reporting problems, requesting help, and resolving user concerns efficiently.
+▪ System Maintenance and Security: IT administrators ensure secure and
+reliable platform operations, implement robust data security measures, and
+integrate the platform with third-party services for payments and notifications.</t>
+  </si>
+  <si>
+    <t>▪ High availability and reliability.
+▪ Secure data handling.
+▪ User-friendly interface.
+▪ Scalability to handle multiple users.</t>
+  </si>
+  <si>
+    <t>CHILTQ</t>
+  </si>
+  <si>
+    <t>EduToyRent – Edu Toy Rental Platform</t>
+  </si>
+  <si>
+    <t>Growing demand for sustainable consumer practices, eco-friendly, cost-effective solutions</t>
+  </si>
+  <si>
+    <t>High turnover rate of children's toys, need for sustainable practices</t>
+  </si>
+  <si>
+    <t>User Renting
+User Offering
+Toy Supplier
+Staff
+IT Administrators</t>
+  </si>
+  <si>
+    <t>EduToyRent – Edu Toy Rental Platform offers an efficient and user-friendly solution
+for renting and buying educational toys.
+• Platform Access: Available via web and mobile applications for easy access.
+• Toy Selection and Submission: Browse, rent, or buy educational toys.
+• Rental/Sales Request: Users and brands can submit requests to sell their toys or
+choose to offer both for sale and rent. When submitting a rental request, users
+must specify prices for three time periods: 1 day, 1 week, and 2 weeks.
+• Chat Functionality: direct communication between renters and suppliers.
+• Request Management: System staff handle and verify requests for renting and
+selling toys. Requests for combined rental toys must include specified rental
+prices for the three time periods.
+• Tracking and Delivery Management: Notifications and status updates for the
+shipping of rented or purchased toys after payment confirmation.
+• Feedback and Rewards: Provide feedback and earn reward points for renting
+and returning toys in good condition, redeemable for discounts.
+• Revenue and Earnings Tracking: Manage and track income from rentals and
+sales, along with financial transactions.
+• Inventory Management: Efficient management of toy inventories by suppliers
+and toy rental providers, including toys for sale.
+• Support and Assistance: Provides support and resolves issues for users.
+• System Maintenance and Security: Ensures secure and reliable operations.</t>
+  </si>
+  <si>
+    <t>TicketResell– Unused Ticket Reselling Platform
+Nền tảng bán lại vé chưa sử dụng</t>
+  </si>
+  <si>
+    <t>1. High Demand for Tickets: Events often sell out quickly, but unforeseen circumstances prevent some ticket holders from attending.
+2. Lack of Reliable Reselling Platforms: Current options for reselling tickets are unregulated and risky.
+3. Trust Issues: Buyers worry about fake tickets, and sellers fear scams.
+4. No Refunds: Most events don’t allow ticket refunds or exchanges.</t>
+  </si>
+  <si>
+    <t>1. Financial Loss: Unused tickets lead to wasted money.
+2. Risky Reselling: Informal reselling methods can result in fraud.
+3. No Central Platform: There's a need for a secure, trusted platform for ticket reselling.
+4. Complicated Transfers: Ticket ownership transfer is often difficult and insecure.</t>
+  </si>
+  <si>
+    <t>General User (Buyer and Seller):
+Staff
+System Administrator</t>
+  </si>
+  <si>
+    <t>TicketResell– Unused Ticket Reselling Platform offers a comprehensive solution for
+efficiently reselling unused tickets. The platform incorporates the following key
+features:
+• Platform Access: Available via both web and mobile applications to ensure easy
+and flexible access for all users.
+• User Authentication: Requires users to verify their identity to prevent fraudulent
+activities. This can be done through phone number verification, email
+confirmation, or social media accounts.
+• Ticket Submission and Management: Users can submit and manage their
+unused tickets for resale, including specifying ticket details such as date, time,
+ticket type, sale price, payment method, and contact information.
+• Search and Filter: Integrates search and filter functionalities to help buyers
+easily find tickets that match their needs based on criteria like event type,
+location, date, and price.
+• Chat Functionality: Provides a chat feature for buyers and sellers to negotiate
+prices, discuss ticket details, and arrange the ticket transfer and payment method.
+• Payment Processing: Secure payment processing for completed ticket
+transactions, with integration for multiple payment methods.
+• Automated Reminders and Push Notifications: Sends notifications and
+reminders about ticket validity, upcoming events, and deadlines for ticket returns,
+as well as alerts when tickets matching users' search criteria become available.
+• Feedback and Ratings: Allows users to provide feedback and rate their
+experience with ticket transactions and interactions with other users to enhance
+trust and reliability.
+• Support and Assistance: Offers customer support and issue resolution for users
+experiencing problems with ticket transactions or platform functionality.• Revenue and Earnings Tracking: Tools for users to manage and track their
+earnings from ticket resales, as well as for system administrators to oversee
+financial transactions.</t>
+  </si>
+  <si>
+    <t>High availability and reliability.
+Secure data handling.
+User-friendly interface.
+Scalability to handle multiple users</t>
+  </si>
+  <si>
+    <t>PawFund- Platform to support adopting and fundraising for abandoned pets
+Nền tảng hỗ trợ nhận nuôi và gây quỹ cho thú cưng bị bỏ rơi</t>
+  </si>
+  <si>
+    <t>1. Abandoned Pets: A growing number of abandoned pets need homes and care.
+2. Resource Constraints: Shelters struggle with limited funds and resources to care for these pets.
+3. Awareness Gap: Many people are unaware of the pets available for adoption or how they can contribute to their care.</t>
+  </si>
+  <si>
+    <t>1. Overcrowded Shelters: Shelters are overwhelmed, leading to inadequate care for abandoned pets.
+2. Low Adoption Rates: Many potential pet adopters are unaware of available pets.
+3. Insufficient Funding: Lack of funds limits the ability to provide necessary care and services.
+4. Limited Outreach: Shelters and rescues struggle to reach a broad audience for both adoptions and donations.</t>
+  </si>
+  <si>
+    <t>Adopters
+Donors
+Shelter Staff
+Volunteers
+Admin
+Guest</t>
+  </si>
+  <si>
+    <t>1.Pet Listings: Allow shelters to post detailed profiles of pets available for adoption.
+2. Adoption Process: Facilitate the application, approval, and tracking of pet adoptions.
+3. Donation: Enable users to make donations and track their contributions.
+4. Search and Filter: Provide search functionality to find pets based on criteria (e.g., breed, age, location).
+5. User Accounts: Support user registration and profiles for adopters, donors, volunteers, and admins.
+6. Event Management: Allow shelters to create and promote adoption and fundraising events.
+7. Notifications: Send alerts to users about new pets, adoption status, and upcoming events.
+8. Admin Dashboard: Provide tools for admins to manage users, monitor platform activity, and resolve issues.
+9. Guest Access: Allow guests to browse pet listings and view basic platform information without the need to register.</t>
+  </si>
+  <si>
+    <t>EventFlowerExchange – Platform for Reselling Event Flowers
+Nền tảng Thanh Lý Hoa Sau Sự Kiện</t>
+  </si>
+  <si>
+    <t>1. Event Waste: After major events like weddings, conferences, and celebrations, a significant amount of fresh flowers goes unused and is often discarded.
+2. Demand for Affordable Flowers: There is a market of buyers looking for fresh flowers at lower prices, particularly from small flower shops and individual customers.
+3. Need for Connection: There is a growing need to connect sellers with surplus event flowers (e.g., growers, large flower shops, event organizers) and buyers who want to purchase flowers at a reduced price.</t>
+  </si>
+  <si>
+    <t>1.Waste of Resources: Large quantities of fresh flowers are wasted after events, leading to financial and environmental costs.
+2. Missed Opportunities: Sellers with surplus flowers struggle to find buyers quickly, leading to potential loss of revenue.
+3. Lack of Centralized Platform: Currently, there is no dedicated platform that efficiently connects sellers of surplus event flowers with interested buyers.
+4. Logistical Challenges: Coordinating the sale and delivery of surplus flowers can be complex without a streamlined system.</t>
+  </si>
+  <si>
+    <t>1. Surplus Flower Sellers (Individuals or businesses with leftover flowers, such as growers, large flower shops, and event organizers)
+2. Flower Buyers (Customers looking to purchase flowers at a discounted price, including individual customers and small flower shops)
+3. Delivery Personnel
+4. System Administrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User Registration and Profiles: Users can register accounts and create personal profiles.
+2. Flower Listings: Sellers can post and manage listings of surplus flowers, including details on flower type, quantity, condition, and pricing.
+3. Online Purchase: Buyers can place orders for flowers online and arrange for delivery.
+4. Order Management: Users can confirm and track the status of their orders.
+5. Notification System: The platform sends notifications for new listings, order updates, and other relevant activities.
+6. Payment Processing: Supports secure payment transactions and manages financial records.
+7. Review and Feedback: Users can rate and review the quality of flowers and delivery services.1. </t>
+  </si>
+  <si>
+    <t>High availability and reliability._x000D_
+Secure data handling._x000D_
+User-friendly interface._x000D_
+Scalability to handle multiple users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nền tảng đặt xe taxi điện Xanh Taxi cho sinh viên ĐHFPT HCM đi học từ Vinhomes </t>
+  </si>
+  <si>
+    <t>SV ĐH FPT ở tại Vinhome rất đông. Hàng ngày SV đi xe máy đến trường cá nhân thì không hiệu quả về chi phí cũng như tốn thời gian cho việc đưa xe vào bãi xe</t>
+  </si>
+  <si>
+    <t>1. Admin:
+Quản lý tài khoản người dùng: Tạo, chỉnh sửa, và xóa tài khoản của sinh viên và nhân viên.
+Quản lý chuyến đi: Theo dõi, quản lý các chuyến đi và trạng thái của chúng.
+Quản lý ví điện tử: Xem và quản lý giao dịch nạp tiền, rút tiền, hoàn tiền.
+Xử lý báo cáo và khiếu nại: Giải quyết các vấn đề, khiếu nại do sinh viên hoặc nhân viên báo cáo.
+Báo cáo và thống kê: Xem báo cáo tổng quan về số lượng chuyến đi, giao dịch tài chính, và các vấn đề phát sinh.
+2. Staff:
+Quản lý và hỗ trợ chuyến đi chung: Theo dõi và hỗ trợ các chuyến đi chung do sinh viên tạo, đảm bảo chúng diễn ra suôn sẻ.
+Xử lý thanh toán và hoàn tiền: Xử lý các yêu cầu thanh toán và hoàn tiền khi chuyến đi không thành công.
+Hỗ trợ sinh viên: Cung cấp hỗ trợ trực tiếp cho sinh viên qua chat hoặc gọi điện khi gặp vấn đề trong quá trình đặt xe.
+Theo dõi lịch trình: Giám sát thời gian thực các chuyến đi để đảm bảo vận hành suôn sẻ.
+3. Student:
+Tạo và tham gia chuyến đi chung: Sinh viên có thể tạo chuyến đi chung cho nhiều sinh viên khác tham gia hoặc tham gia vào các chuyến đi chung đã có sẵn.
+Đặt chuyến đi: Sinh viên có thể đặt xe riêng lẻ hoặc tham gia chuyến đi chung.
+Nạp tiền vào ví: Nạp tiền vào ví điện tử để sử dụng cho các chuyến đi.
+Thanh toán chuyến đi: Thanh toán trực tiếp từ ví điện tử khi hoàn thành chuyến đi.
+Hoàn tiền: Yêu cầu hoàn tiền nếu chuyến đi không thành công hoặc bị hủy.
+Báo cáo vấn đề: Gửi báo cáo về các sự cố hoặc vấn đề phát sinh trong chuyến đi qua ứng dụng.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hệ thống bán KIT STEM có kèm theo bài LAB </t>
+  </si>
+  <si>
+    <t>Admin, Manager, Staff, Customer</t>
+  </si>
+  <si>
+    <t>. Manager
+Quản lý sản phẩm KIT và bài Lab: Tạo, chỉnh sửa, và quản lý các Kit STEM và bài Lab liên quan.
+Quản lý giao nhận Kit vật lý: Theo dõi quá trình giao nhận Kit vật lý từ kho đến khách hàng. Chỉ khi Kit được xác nhận đã giao thành công, bài Lab kèm theo mới được kích hoạt.
+Quản lý tài khoản người dùng: Quản lý tài khoản của khách hàng và nhân viên, bao gồm quyền truy cập và các chức năng của hệ thống.
+Báo cáo và thống kê: Xem và xuất các báo cáo về doanh số bán hàng, lịch sử hỗ trợ, và hoạt động giao nhận.
+2. Staff (Supporter)
+Hỗ trợ kỹ thuật bài Lab: Cung cấp hỗ trợ cho khách hàng trong quá trình thực hiện các bài Lab. Theo dõi và ghi nhận số lần hỗ trợ đã cung cấp cho từng khách hàng.
+Quản lý lịch sử hỗ trợ: Theo dõi số lần hỗ trợ đã thực hiện cho mỗi bài Lab, đảm bảo tuân thủ quy định về số lần hỗ trợ tối đa.
+Xác nhận giao nhận Kit: Cập nhật trạng thái giao nhận Kit vật lý và kích hoạt bài Lab sau khi Kit được giao thành công.
+3. Customer
+Đặt mua Kit STEM và bài Lab: Khách hàng có thể chọn và đặt mua các Kit STEM và bài Lab liên quan.
+Quản lý đơn hàng và thanh toán: Theo dõi trạng thái đơn hàng, thực hiện thanh toán trực tuyến, và quản lý lịch sử mua hàng.
+Tải xuống bài Lab: Tải xuống bài Lab dưới dạng PDF, được cá nhân hóa với thông tin cá nhân và mã đơn hàng.
+Yêu cầu hỗ trợ: Gửi yêu cầu hỗ trợ kỹ thuật cho các bài Lab đã mua, theo dõi số lần hỗ trợ còn lại.
+Quản lý tài khoản: Xem và quản lý thông tin cá nhân, lịch sử đơn hàng, bài Lab đã tải xuống và hỗ trợ đã nhận.</t>
   </si>
   <si>
     <r>
@@ -2620,7 +2950,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
@@ -2828,17 +3158,11 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2874,6 +3198,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
@@ -65424,22 +65751,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D848C5C6-8CE6-411B-8EBE-33D4EA54EF4E}">
-  <dimension ref="A1:AB43"/>
+  <dimension ref="A1:AB38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M25" sqref="M25"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="102.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="59" customFormat="1" ht="27" customHeight="1">
@@ -65450,10 +65778,10 @@
         <v>256</v>
       </c>
       <c r="C1" s="69" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" s="69" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" s="69" t="s">
         <v>5</v>
@@ -65464,7 +65792,9 @@
       <c r="G1" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="60"/>
+      <c r="H1" s="60" t="s">
+        <v>257</v>
+      </c>
       <c r="I1" s="56"/>
       <c r="J1" s="57"/>
       <c r="K1" s="57"/>
@@ -65487,22 +65817,24 @@
       <c r="AB1" s="58"/>
     </row>
     <row r="2" spans="1:28" s="55" customFormat="1" ht="306.75" customHeight="1">
-      <c r="A2" s="83">
+      <c r="A2" s="81">
         <v>1</v>
       </c>
-      <c r="B2" s="80" t="s">
-        <v>257</v>
-      </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="78" t="s">
         <v>258</v>
       </c>
-      <c r="F2" s="84" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="79" t="s">
         <v>259</v>
       </c>
-      <c r="G2" s="87"/>
-      <c r="H2" s="61"/>
+      <c r="F2" s="82" t="s">
+        <v>260</v>
+      </c>
+      <c r="G2" s="86"/>
+      <c r="H2" s="61" t="s">
+        <v>55</v>
+      </c>
       <c r="I2" s="62"/>
       <c r="J2" s="63"/>
       <c r="K2" s="63"/>
@@ -65525,399 +65857,516 @@
       <c r="AB2" s="64"/>
     </row>
     <row r="3" spans="1:28" s="55" customFormat="1" ht="286.5" customHeight="1">
-      <c r="A3" s="83">
+      <c r="A3" s="81">
         <v>2</v>
       </c>
-      <c r="B3" s="79" t="s">
-        <v>260</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="82" t="s">
+      <c r="B3" s="77" t="s">
         <v>261</v>
       </c>
-      <c r="F3" s="85" t="s">
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="80" t="s">
         <v>262</v>
       </c>
-      <c r="G3" s="88"/>
-      <c r="H3" s="61"/>
+      <c r="F3" s="83" t="s">
+        <v>263</v>
+      </c>
+      <c r="G3" s="87"/>
+      <c r="H3" s="61" t="s">
+        <v>55</v>
+      </c>
       <c r="I3" s="62"/>
     </row>
     <row r="4" spans="1:28" s="55" customFormat="1" ht="244.5">
-      <c r="A4" s="83">
+      <c r="A4" s="81">
         <v>3</v>
       </c>
-      <c r="B4" s="79" t="s">
-        <v>263</v>
-      </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="82" t="s">
+      <c r="B4" s="77" t="s">
         <v>264</v>
       </c>
-      <c r="F4" s="85" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="80" t="s">
         <v>265</v>
       </c>
-      <c r="G4" s="88"/>
-      <c r="H4" s="61"/>
+      <c r="F4" s="83" t="s">
+        <v>266</v>
+      </c>
+      <c r="G4" s="87"/>
+      <c r="H4" s="61" t="s">
+        <v>55</v>
+      </c>
       <c r="I4" s="62"/>
     </row>
-    <row r="5" spans="1:28" s="73" customFormat="1" ht="270.75" customHeight="1">
-      <c r="A5" s="83">
+    <row r="5" spans="1:28" s="72" customFormat="1" ht="270.75" customHeight="1">
+      <c r="A5" s="81">
         <v>4</v>
       </c>
-      <c r="B5" s="79" t="s">
-        <v>266</v>
-      </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="82" t="s">
+      <c r="B5" s="77" t="s">
         <v>267</v>
       </c>
-      <c r="F5" s="85" t="s">
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="80" t="s">
         <v>268</v>
       </c>
-      <c r="G5" s="88"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="72"/>
-    </row>
-    <row r="6" spans="1:28" s="73" customFormat="1" ht="240.75" customHeight="1">
-      <c r="A6" s="83">
+      <c r="F5" s="83" t="s">
+        <v>269</v>
+      </c>
+      <c r="G5" s="87"/>
+      <c r="H5" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="71"/>
+    </row>
+    <row r="6" spans="1:28" s="72" customFormat="1" ht="240.75" customHeight="1">
+      <c r="A6" s="81">
         <v>5</v>
       </c>
-      <c r="B6" s="79" t="s">
-        <v>269</v>
-      </c>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="82" t="s">
+      <c r="B6" s="77" t="s">
         <v>270</v>
       </c>
-      <c r="F6" s="85" t="s">
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="80" t="s">
         <v>271</v>
       </c>
-      <c r="G6" s="89"/>
-    </row>
-    <row r="7" spans="1:28" s="73" customFormat="1" ht="269.25" customHeight="1">
-      <c r="A7" s="83">
+      <c r="F6" s="83" t="s">
+        <v>272</v>
+      </c>
+      <c r="G6" s="88"/>
+      <c r="H6" s="61" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" s="72" customFormat="1" ht="269.25" customHeight="1">
+      <c r="A7" s="81">
         <v>6</v>
       </c>
-      <c r="B7" s="79" t="s">
-        <v>272</v>
-      </c>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="82" t="s">
+      <c r="B7" s="77" t="s">
         <v>273</v>
       </c>
-      <c r="F7" s="85" t="s">
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="80" t="s">
         <v>274</v>
       </c>
-      <c r="G7" s="89"/>
-    </row>
-    <row r="8" spans="1:28" s="73" customFormat="1" ht="209.25" customHeight="1">
-      <c r="A8" s="83">
+      <c r="F7" s="83" t="s">
+        <v>275</v>
+      </c>
+      <c r="G7" s="88"/>
+      <c r="H7" s="61" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" s="72" customFormat="1" ht="209.25" customHeight="1">
+      <c r="A8" s="81">
         <v>7</v>
       </c>
-      <c r="B8" s="79" t="s">
-        <v>275</v>
-      </c>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="82" t="s">
+      <c r="B8" s="77" t="s">
         <v>276</v>
       </c>
-      <c r="F8" s="85" t="s">
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="80" t="s">
         <v>277</v>
       </c>
-      <c r="G8" s="89"/>
-    </row>
-    <row r="9" spans="1:28" s="73" customFormat="1" ht="259.5">
-      <c r="A9" s="83">
+      <c r="F8" s="83" t="s">
+        <v>278</v>
+      </c>
+      <c r="G8" s="88"/>
+      <c r="H8" s="61" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" s="72" customFormat="1" ht="259.5">
+      <c r="A9" s="81">
         <v>8</v>
       </c>
-      <c r="B9" s="79" t="s">
-        <v>278</v>
-      </c>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="82" t="s">
+      <c r="B9" s="77" t="s">
         <v>279</v>
       </c>
-      <c r="F9" s="85" t="s">
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="80" t="s">
         <v>280</v>
       </c>
-      <c r="G9" s="89"/>
-    </row>
-    <row r="10" spans="1:28" s="75" customFormat="1" ht="393" customHeight="1">
-      <c r="A10" s="83">
+      <c r="F9" s="83" t="s">
+        <v>281</v>
+      </c>
+      <c r="G9" s="88"/>
+      <c r="H9" s="61" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" s="73" customFormat="1" ht="393" customHeight="1">
+      <c r="A10" s="81">
         <v>9</v>
       </c>
-      <c r="B10" s="79" t="s">
-        <v>281</v>
-      </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="82" t="s">
+      <c r="B10" s="77" t="s">
         <v>282</v>
       </c>
-      <c r="F10" s="85" t="s">
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="80" t="s">
         <v>283</v>
       </c>
-      <c r="G10" s="88"/>
-      <c r="H10" s="74"/>
+      <c r="F10" s="83" t="s">
+        <v>284</v>
+      </c>
+      <c r="G10" s="87"/>
+      <c r="H10" s="61" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11" spans="1:28" s="30" customFormat="1" ht="360.75" customHeight="1">
-      <c r="A11" s="83">
+      <c r="A11" s="81">
         <v>10</v>
       </c>
-      <c r="B11" s="79" t="s">
-        <v>284</v>
-      </c>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="82" t="s">
+      <c r="B11" s="77" t="s">
         <v>285</v>
       </c>
-      <c r="F11" s="85" t="s">
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="80" t="s">
         <v>286</v>
       </c>
-      <c r="G11" s="90"/>
+      <c r="F11" s="83" t="s">
+        <v>287</v>
+      </c>
+      <c r="G11" s="89"/>
+      <c r="H11" s="61" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="12" spans="1:28" s="30" customFormat="1" ht="305.25">
       <c r="A12" s="70">
         <v>11</v>
       </c>
-      <c r="B12" s="88" t="s">
-        <v>287</v>
-      </c>
-      <c r="C12" s="88" t="s">
+      <c r="B12" s="87" t="s">
         <v>288</v>
       </c>
-      <c r="D12" s="88"/>
-      <c r="E12" s="91" t="s">
+      <c r="C12" s="87"/>
+      <c r="D12" s="87" t="s">
         <v>289</v>
       </c>
-      <c r="F12" s="88" t="s">
+      <c r="E12" s="90" t="s">
         <v>290</v>
       </c>
-      <c r="G12" s="88"/>
-    </row>
-    <row r="13" spans="1:28" s="73" customFormat="1" ht="321">
+      <c r="F12" s="87" t="s">
+        <v>291</v>
+      </c>
+      <c r="G12" s="87"/>
+      <c r="H12" s="61"/>
+    </row>
+    <row r="13" spans="1:28" s="72" customFormat="1" ht="321">
       <c r="A13" s="70">
         <v>12</v>
       </c>
-      <c r="B13" s="86" t="s">
-        <v>291</v>
-      </c>
-      <c r="C13" s="90" t="s">
+      <c r="B13" s="84" t="s">
         <v>292</v>
       </c>
-      <c r="D13" s="90"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="90"/>
-    </row>
-    <row r="14" spans="1:28" s="73" customFormat="1">
+      <c r="C13" s="89"/>
+      <c r="D13" s="89" t="s">
+        <v>293</v>
+      </c>
+      <c r="E13" s="65" t="s">
+        <v>294</v>
+      </c>
+      <c r="F13" s="65" t="s">
+        <v>295</v>
+      </c>
+      <c r="G13" s="89"/>
+    </row>
+    <row r="14" spans="1:28" s="72" customFormat="1" ht="409.6">
       <c r="A14" s="70">
         <v>13</v>
       </c>
-      <c r="B14" s="66"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="88"/>
-    </row>
-    <row r="15" spans="1:28" s="73" customFormat="1">
+      <c r="B14" s="66" t="s">
+        <v>296</v>
+      </c>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87" t="s">
+        <v>297</v>
+      </c>
+      <c r="E14" s="66" t="s">
+        <v>298</v>
+      </c>
+      <c r="F14" s="66" t="s">
+        <v>299</v>
+      </c>
+      <c r="G14" s="87"/>
+      <c r="H14" s="72" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" s="72" customFormat="1" ht="366">
       <c r="A15" s="70">
         <v>14</v>
       </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="90"/>
-    </row>
-    <row r="16" spans="1:28" s="73" customFormat="1">
+      <c r="B15" s="65" t="s">
+        <v>301</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>302</v>
+      </c>
+      <c r="D15" s="65" t="s">
+        <v>303</v>
+      </c>
+      <c r="E15" s="65" t="s">
+        <v>304</v>
+      </c>
+      <c r="F15" s="65" t="s">
+        <v>305</v>
+      </c>
+      <c r="G15" s="89" t="s">
+        <v>306</v>
+      </c>
+      <c r="H15" s="72" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" s="72" customFormat="1" ht="321">
       <c r="A16" s="70">
         <v>15</v>
       </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="88"/>
-    </row>
-    <row r="17" spans="1:7" s="73" customFormat="1">
+      <c r="B16" s="66" t="s">
+        <v>308</v>
+      </c>
+      <c r="C16" s="87" t="s">
+        <v>309</v>
+      </c>
+      <c r="D16" s="87" t="s">
+        <v>310</v>
+      </c>
+      <c r="E16" s="66" t="s">
+        <v>311</v>
+      </c>
+      <c r="F16" s="66" t="s">
+        <v>312</v>
+      </c>
+      <c r="G16" s="85" t="s">
+        <v>306</v>
+      </c>
+      <c r="H16" s="72" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="72" customFormat="1" ht="409.6">
       <c r="A17" s="70">
         <v>16</v>
       </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="90"/>
-    </row>
-    <row r="18" spans="1:7" s="73" customFormat="1">
+      <c r="B17" s="65" t="s">
+        <v>313</v>
+      </c>
+      <c r="C17" s="89" t="s">
+        <v>314</v>
+      </c>
+      <c r="D17" s="89" t="s">
+        <v>315</v>
+      </c>
+      <c r="E17" s="65" t="s">
+        <v>316</v>
+      </c>
+      <c r="F17" s="65" t="s">
+        <v>317</v>
+      </c>
+      <c r="G17" s="65" t="s">
+        <v>318</v>
+      </c>
+      <c r="H17" s="72" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="72" customFormat="1" ht="229.5">
       <c r="A18" s="70">
         <v>17</v>
       </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="88"/>
-    </row>
-    <row r="19" spans="1:7" s="73" customFormat="1" ht="102.75" customHeight="1">
+      <c r="B18" s="66" t="s">
+        <v>319</v>
+      </c>
+      <c r="C18" s="87" t="s">
+        <v>320</v>
+      </c>
+      <c r="D18" s="87" t="s">
+        <v>321</v>
+      </c>
+      <c r="E18" s="66" t="s">
+        <v>322</v>
+      </c>
+      <c r="F18" s="66" t="s">
+        <v>323</v>
+      </c>
+      <c r="G18" s="66" t="s">
+        <v>318</v>
+      </c>
+      <c r="H18" s="72" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="72" customFormat="1" ht="102.75" customHeight="1">
       <c r="A19" s="70">
         <v>18</v>
       </c>
-      <c r="B19" s="90"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-    </row>
-    <row r="20" spans="1:7" s="73" customFormat="1">
+      <c r="B19" s="89" t="s">
+        <v>324</v>
+      </c>
+      <c r="C19" s="89" t="s">
+        <v>325</v>
+      </c>
+      <c r="D19" s="89" t="s">
+        <v>326</v>
+      </c>
+      <c r="E19" s="89" t="s">
+        <v>327</v>
+      </c>
+      <c r="F19" s="89" t="s">
+        <v>328</v>
+      </c>
+      <c r="G19" s="89" t="s">
+        <v>329</v>
+      </c>
+      <c r="H19" s="72" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="72" customFormat="1" ht="75" customHeight="1">
       <c r="A20" s="70">
         <v>19</v>
       </c>
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
-    </row>
-    <row r="21" spans="1:7" s="73" customFormat="1" ht="75" customHeight="1">
+      <c r="B20" s="89" t="s">
+        <v>330</v>
+      </c>
+      <c r="C20" s="89" t="s">
+        <v>331</v>
+      </c>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="89" t="s">
+        <v>332</v>
+      </c>
+      <c r="G20" s="89"/>
+      <c r="H20" s="72" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="72" customFormat="1" ht="180" customHeight="1">
       <c r="A21" s="70">
         <v>20</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-    </row>
-    <row r="22" spans="1:7" s="73" customFormat="1" ht="180" customHeight="1">
+      <c r="B21" s="87" t="s">
+        <v>333</v>
+      </c>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87" t="s">
+        <v>334</v>
+      </c>
+      <c r="F21" s="87" t="s">
+        <v>335</v>
+      </c>
+      <c r="G21" s="87"/>
+      <c r="H21" s="72" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="72" customFormat="1">
       <c r="A22" s="70">
-        <v>21</v>
-      </c>
-      <c r="B22" s="88"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-    </row>
-    <row r="23" spans="1:7" s="73" customFormat="1">
-      <c r="A23" s="70">
         <v>22</v>
       </c>
-      <c r="B23" s="88"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="92"/>
-    </row>
-    <row r="24" spans="1:7" s="73" customFormat="1">
-      <c r="A24" s="70">
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="91"/>
+    </row>
+    <row r="23" spans="1:8" s="72" customFormat="1">
+      <c r="A23" s="70">
         <v>23</v>
       </c>
-      <c r="B24" s="90"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
-    </row>
-    <row r="25" spans="1:7" s="73" customFormat="1">
-      <c r="A25" s="70">
+      <c r="B23" s="89"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="89"/>
+    </row>
+    <row r="24" spans="1:8" s="72" customFormat="1">
+      <c r="A24" s="70">
         <v>24</v>
       </c>
-      <c r="B25" s="76"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="92"/>
-    </row>
-    <row r="26" spans="1:7" s="73" customFormat="1">
-      <c r="A26" s="70">
+      <c r="B24" s="74"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="91"/>
+    </row>
+    <row r="25" spans="1:8" s="72" customFormat="1">
+      <c r="A25" s="70">
         <v>25</v>
       </c>
-      <c r="B26" s="78"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="93"/>
-    </row>
-    <row r="27" spans="1:7" s="73" customFormat="1" ht="15.75">
-      <c r="A27" s="70">
+      <c r="B25" s="76"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="92"/>
+    </row>
+    <row r="26" spans="1:8" s="72" customFormat="1" ht="15.75">
+      <c r="A26" s="70">
         <v>26</v>
       </c>
-      <c r="B27" s="67"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="92"/>
-    </row>
-    <row r="28" spans="1:7" s="73" customFormat="1">
-      <c r="A28" s="70">
+      <c r="B26" s="67"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="91"/>
+    </row>
+    <row r="27" spans="1:8" s="72" customFormat="1">
+      <c r="A27" s="70">
         <v>27</v>
       </c>
-      <c r="B28" s="93"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="93"/>
-    </row>
-    <row r="29" spans="1:7" s="73" customFormat="1" ht="138" customHeight="1">
-      <c r="A29" s="70">
+      <c r="B27" s="92"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="92"/>
+    </row>
+    <row r="28" spans="1:8" s="72" customFormat="1" ht="138" customHeight="1">
+      <c r="A28" s="70">
         <v>28</v>
       </c>
-      <c r="B29" s="88"/>
-      <c r="C29" s="92"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-    </row>
-    <row r="30" spans="1:7" s="73" customFormat="1">
-      <c r="A30" s="70">
+      <c r="B28" s="87"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="87"/>
+    </row>
+    <row r="29" spans="1:8" s="72" customFormat="1">
+      <c r="A29" s="70">
         <v>29</v>
       </c>
-      <c r="B30" s="90"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="93"/>
-    </row>
-    <row r="31" spans="1:7" s="73" customFormat="1"/>
-    <row r="32" spans="1:7" s="73" customFormat="1"/>
-    <row r="33" s="73" customFormat="1"/>
-    <row r="34" s="73" customFormat="1"/>
-    <row r="35" s="73" customFormat="1"/>
-    <row r="36" s="73" customFormat="1"/>
-    <row r="37" s="73" customFormat="1"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="92"/>
+    </row>
+    <row r="30" spans="1:8" s="72" customFormat="1"/>
+    <row r="31" spans="1:8" s="72" customFormat="1"/>
+    <row r="32" spans="1:8" s="72" customFormat="1"/>
+    <row r="33" s="72" customFormat="1"/>
+    <row r="34" s="72" customFormat="1"/>
+    <row r="35" s="72" customFormat="1"/>
+    <row r="36" s="72" customFormat="1"/>
+    <row r="37" s="55" customFormat="1"/>
     <row r="38" s="55" customFormat="1"/>
-    <row r="39" s="55" customFormat="1"/>
-    <row r="40" customFormat="1"/>
-    <row r="41" customFormat="1"/>
-    <row r="42" customFormat="1"/>
-    <row r="43" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -66011,7 +66460,7 @@
         <v>119</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>293</v>
+        <v>336</v>
       </c>
       <c r="H2" s="25"/>
     </row>
